--- a/dane/mala brama/100ms/dane_mala_100ms.xlsx
+++ b/dane/mala brama/100ms/dane_mala_100ms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Gate-sensor\dane\mala brama\100ms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Gate-sensor\dane\mala brama\100ms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D81A15-1281-49EA-80D2-81220A3029D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0C5F9-E3F4-4DA2-8789-C2937389EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C9B2406-DA90-4C4E-B21B-F44153634196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C9B2406-DA90-4C4E-B21B-F44153634196}"/>
   </bookViews>
   <sheets>
     <sheet name="otwieranie" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -735,21 +734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0869FF5E-25FE-4344-AEDF-C6FB61C2664F}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -803,7 +802,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>8</v>
       </c>
       <c r="H2">
@@ -825,7 +824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -841,7 +840,7 @@
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3">
@@ -863,7 +862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -879,7 +878,7 @@
       <c r="F4">
         <v>200</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4">
@@ -901,7 +900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -917,7 +916,7 @@
       <c r="F5">
         <v>300</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5">
@@ -939,7 +938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -955,7 +954,7 @@
       <c r="F6">
         <v>400</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6">
@@ -977,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -993,7 +992,7 @@
       <c r="F7">
         <v>500</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
@@ -1015,7 +1014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
@@ -1031,7 +1030,7 @@
       <c r="F8">
         <v>600</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8">
@@ -1053,7 +1052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
@@ -1069,7 +1068,7 @@
       <c r="F9">
         <v>700</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9">
@@ -1091,7 +1090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
@@ -1107,7 +1106,7 @@
       <c r="F10">
         <v>800</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10">
@@ -1129,7 +1128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
@@ -1145,7 +1144,7 @@
       <c r="F11">
         <v>900</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11">
@@ -1167,7 +1166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -1183,7 +1182,7 @@
       <c r="F12">
         <v>1000</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="H12">
@@ -1205,7 +1204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="F13">
         <v>1100</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13">
@@ -1243,7 +1242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -1259,7 +1258,7 @@
       <c r="F14">
         <v>1200</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14">
@@ -1281,7 +1280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -1297,7 +1296,7 @@
       <c r="F15">
         <v>1300</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>5</v>
       </c>
       <c r="H15">
@@ -1319,7 +1318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -1335,7 +1334,7 @@
       <c r="F16">
         <v>1400</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16">
@@ -1357,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -1373,7 +1372,7 @@
       <c r="F17">
         <v>1500</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17">
@@ -1395,7 +1394,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -1411,7 +1410,7 @@
       <c r="F18">
         <v>1600</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18">
@@ -1433,7 +1432,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -1449,7 +1448,7 @@
       <c r="F19">
         <v>1700</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19">
@@ -1471,7 +1470,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -1487,7 +1486,7 @@
       <c r="F20">
         <v>1800</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>7</v>
       </c>
       <c r="H20">
@@ -1509,7 +1508,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -1525,7 +1524,7 @@
       <c r="F21">
         <v>1900</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>7</v>
       </c>
       <c r="H21">
@@ -1547,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1563,7 +1562,7 @@
       <c r="F22">
         <v>2000</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
       <c r="H22">
@@ -1585,7 +1584,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="F23">
         <v>2100</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>8</v>
       </c>
       <c r="H23">
@@ -1623,7 +1622,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -1639,7 +1638,7 @@
       <c r="F24">
         <v>2200</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24">
@@ -1661,7 +1660,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -1677,7 +1676,7 @@
       <c r="F25">
         <v>2300</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>9</v>
       </c>
       <c r="H25">
@@ -1699,7 +1698,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -1715,7 +1714,7 @@
       <c r="F26">
         <v>2400</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>9</v>
       </c>
       <c r="H26">
@@ -1737,7 +1736,7 @@
         <v>-36</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -1753,7 +1752,7 @@
       <c r="F27">
         <v>2500</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27">
@@ -1775,7 +1774,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -1791,7 +1790,7 @@
       <c r="F28">
         <v>2600</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>9</v>
       </c>
       <c r="H28">
@@ -1813,7 +1812,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -1829,7 +1828,7 @@
       <c r="F29">
         <v>2700</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>10</v>
       </c>
       <c r="H29">
@@ -1851,7 +1850,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="F30">
         <v>2800</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>10</v>
       </c>
       <c r="H30">
@@ -1889,7 +1888,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="F31">
         <v>2900</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31">
@@ -1927,7 +1926,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="F32">
         <v>3000</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32">
@@ -1965,7 +1964,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="F33">
         <v>3100</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>12</v>
       </c>
       <c r="H33">
@@ -2003,7 +2002,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="F34">
         <v>3200</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34">
@@ -2041,7 +2040,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -2057,7 +2056,7 @@
       <c r="F35">
         <v>3300</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>13</v>
       </c>
       <c r="H35">
@@ -2079,7 +2078,7 @@
         <v>-49</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -2095,7 +2094,7 @@
       <c r="F36">
         <v>3400</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36">
@@ -2117,7 +2116,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -2133,7 +2132,7 @@
       <c r="F37">
         <v>3500</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37">
@@ -2155,7 +2154,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -2171,7 +2170,7 @@
       <c r="F38">
         <v>3600</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38">
@@ -2193,7 +2192,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -2209,7 +2208,7 @@
       <c r="F39">
         <v>3700</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39">
@@ -2231,7 +2230,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -2247,7 +2246,7 @@
       <c r="F40">
         <v>3800</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>15</v>
       </c>
       <c r="H40">
@@ -2269,7 +2268,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -2285,7 +2284,7 @@
       <c r="F41">
         <v>3900</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41">
@@ -2307,7 +2306,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -2323,7 +2322,7 @@
       <c r="F42">
         <v>4000</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42">
@@ -2345,7 +2344,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -2361,7 +2360,7 @@
       <c r="F43">
         <v>4100</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43">
@@ -2383,7 +2382,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -2399,7 +2398,7 @@
       <c r="F44">
         <v>4200</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>18</v>
       </c>
       <c r="H44">
@@ -2421,7 +2420,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -2437,7 +2436,7 @@
       <c r="F45">
         <v>4300</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45">
@@ -2459,7 +2458,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -2475,7 +2474,7 @@
       <c r="F46">
         <v>4400</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46">
@@ -2497,7 +2496,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -2513,7 +2512,7 @@
       <c r="F47">
         <v>4500</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>20</v>
       </c>
       <c r="H47">
@@ -2535,7 +2534,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -2551,7 +2550,7 @@
       <c r="F48">
         <v>4600</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>9</v>
       </c>
       <c r="H48">
@@ -2573,7 +2572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -2589,7 +2588,7 @@
       <c r="F49">
         <v>4700</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>21</v>
       </c>
       <c r="H49">
@@ -2611,7 +2610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -2627,7 +2626,7 @@
       <c r="F50">
         <v>4800</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>22</v>
       </c>
       <c r="H50">
@@ -2649,7 +2648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="F51">
         <v>4900</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>22</v>
       </c>
       <c r="H51">
@@ -2687,7 +2686,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -2703,7 +2702,7 @@
       <c r="F52">
         <v>5000</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>23</v>
       </c>
       <c r="H52">
@@ -2725,7 +2724,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -2741,7 +2740,7 @@
       <c r="F53">
         <v>5100</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>24</v>
       </c>
       <c r="H53">
@@ -2763,7 +2762,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="F54">
         <v>5200</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>25</v>
       </c>
       <c r="H54">
@@ -2801,7 +2800,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -2817,7 +2816,7 @@
       <c r="F55">
         <v>5300</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>26</v>
       </c>
       <c r="H55">
@@ -2839,7 +2838,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="F56">
         <v>5400</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56">
@@ -2877,7 +2876,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -2893,7 +2892,7 @@
       <c r="F57">
         <v>5500</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>26</v>
       </c>
       <c r="H57">
@@ -2915,7 +2914,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -2931,7 +2930,7 @@
       <c r="F58">
         <v>5600</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>28</v>
       </c>
       <c r="H58">
@@ -2953,7 +2952,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -2969,7 +2968,7 @@
       <c r="F59">
         <v>5700</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>29</v>
       </c>
       <c r="H59">
@@ -2991,7 +2990,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="F60">
         <v>5800</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>29</v>
       </c>
       <c r="H60">
@@ -3029,7 +3028,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -3045,7 +3044,7 @@
       <c r="F61">
         <v>5900</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>30</v>
       </c>
       <c r="H61">
@@ -3067,7 +3066,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -3083,7 +3082,7 @@
       <c r="F62">
         <v>6000</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>31</v>
       </c>
       <c r="H62">
@@ -3105,7 +3104,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -3121,7 +3120,7 @@
       <c r="F63">
         <v>6100</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>32</v>
       </c>
       <c r="H63">
@@ -3143,7 +3142,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -3159,7 +3158,7 @@
       <c r="F64">
         <v>6200</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>32</v>
       </c>
       <c r="H64">
@@ -3181,7 +3180,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -3197,7 +3196,7 @@
       <c r="F65">
         <v>6300</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>33</v>
       </c>
       <c r="H65">
@@ -3219,7 +3218,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -3235,7 +3234,7 @@
       <c r="F66">
         <v>6400</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66">
@@ -3257,7 +3256,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -3273,7 +3272,7 @@
       <c r="F67">
         <v>6500</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>4</v>
       </c>
       <c r="H67">
@@ -3295,7 +3294,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -3311,7 +3310,7 @@
       <c r="F68">
         <v>6600</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>4</v>
       </c>
       <c r="H68">
@@ -3333,7 +3332,7 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -3349,7 +3348,7 @@
       <c r="F69">
         <v>6700</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>34</v>
       </c>
       <c r="H69">
@@ -3371,7 +3370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -3387,7 +3386,7 @@
       <c r="F70">
         <v>6800</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>21</v>
       </c>
       <c r="H70">
@@ -3409,7 +3408,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="F71">
         <v>6900</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>30</v>
       </c>
       <c r="H71">
@@ -3447,7 +3446,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="F72">
         <v>7000</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>30</v>
       </c>
       <c r="H72">
@@ -3485,7 +3484,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -3501,7 +3500,7 @@
       <c r="F73">
         <v>7100</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>32</v>
       </c>
       <c r="H73">
@@ -3523,7 +3522,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="F74">
         <v>7200</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>22</v>
       </c>
       <c r="H74">
@@ -3561,7 +3560,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="F75">
         <v>7300</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>5</v>
       </c>
       <c r="H75">
@@ -3599,7 +3598,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -3615,7 +3614,7 @@
       <c r="F76">
         <v>7400</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>22</v>
       </c>
       <c r="H76">
@@ -3637,7 +3636,7 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -3653,7 +3652,7 @@
       <c r="F77">
         <v>7500</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" t="s">
         <v>22</v>
       </c>
       <c r="H77">
@@ -3675,7 +3674,7 @@
         <v>-108</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -3691,7 +3690,7 @@
       <c r="F78">
         <v>7600</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" t="s">
         <v>35</v>
       </c>
       <c r="H78">
@@ -3713,7 +3712,7 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="F79">
         <v>7700</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" t="s">
         <v>26</v>
       </c>
       <c r="H79">
@@ -3751,7 +3750,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="F80">
         <v>7800</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" t="s">
         <v>36</v>
       </c>
       <c r="H80">
@@ -3789,7 +3788,7 @@
         <v>-82</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -3805,7 +3804,7 @@
       <c r="F81">
         <v>7900</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" t="s">
         <v>36</v>
       </c>
       <c r="H81">
@@ -3827,7 +3826,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="F82">
         <v>8000</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" t="s">
         <v>9</v>
       </c>
       <c r="H82">
@@ -3865,7 +3864,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="F83">
         <v>8100</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>30</v>
       </c>
       <c r="H83">
@@ -3903,7 +3902,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -3919,7 +3918,7 @@
       <c r="F84">
         <v>8200</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" t="s">
         <v>30</v>
       </c>
       <c r="H84">
@@ -3941,7 +3940,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -3957,7 +3956,7 @@
       <c r="F85">
         <v>8300</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" t="s">
         <v>30</v>
       </c>
       <c r="H85">
@@ -3979,7 +3978,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -3995,7 +3994,7 @@
       <c r="F86">
         <v>8400</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" t="s">
         <v>30</v>
       </c>
       <c r="H86">
@@ -4017,7 +4016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="F87">
         <v>8500</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" t="s">
         <v>20</v>
       </c>
       <c r="H87">
@@ -4055,7 +4054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -4071,7 +4070,7 @@
       <c r="F88">
         <v>8600</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
         <v>4</v>
       </c>
       <c r="H88">
@@ -4093,7 +4092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -4109,7 +4108,7 @@
       <c r="F89">
         <v>8700</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" t="s">
         <v>7</v>
       </c>
       <c r="H89">
@@ -4131,7 +4130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -4147,7 +4146,7 @@
       <c r="F90">
         <v>8800</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" t="s">
         <v>7</v>
       </c>
       <c r="H90">
@@ -4169,7 +4168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -4185,7 +4184,7 @@
       <c r="F91">
         <v>8900</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>7</v>
       </c>
       <c r="H91">
@@ -4207,7 +4206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -4223,7 +4222,7 @@
       <c r="F92">
         <v>9000</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" t="s">
         <v>7</v>
       </c>
       <c r="H92">
@@ -4245,7 +4244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="F93">
         <v>9100</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" t="s">
         <v>7</v>
       </c>
       <c r="H93">
@@ -4283,7 +4282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -4299,7 +4298,7 @@
       <c r="F94">
         <v>9200</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>7</v>
       </c>
       <c r="H94">
@@ -4321,7 +4320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -4337,7 +4336,7 @@
       <c r="F95">
         <v>9300</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" t="s">
         <v>7</v>
       </c>
       <c r="H95">
@@ -4359,7 +4358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9400</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="F96">
         <v>9400</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" t="s">
         <v>7</v>
       </c>
       <c r="H96">
@@ -4397,7 +4396,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9500</v>
       </c>
@@ -4413,7 +4412,7 @@
       <c r="F97">
         <v>9500</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" t="s">
         <v>7</v>
       </c>
       <c r="H97">
@@ -4435,7 +4434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9600</v>
       </c>
@@ -4451,7 +4450,7 @@
       <c r="F98">
         <v>9600</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>7</v>
       </c>
       <c r="H98">
@@ -4473,7 +4472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9700</v>
       </c>
@@ -4489,7 +4488,7 @@
       <c r="F99">
         <v>9700</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" t="s">
         <v>7</v>
       </c>
       <c r="H99">
@@ -4511,7 +4510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9800</v>
       </c>
@@ -4527,7 +4526,7 @@
       <c r="F100">
         <v>9800</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>7</v>
       </c>
       <c r="H100">
@@ -4549,7 +4548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9900</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="F101">
         <v>9900</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" t="s">
         <v>7</v>
       </c>
       <c r="H101">
@@ -4601,18 +4600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F9939C-8087-4746-9CF6-168011EDC593}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>-54</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>-68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>-132</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>-86</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>-96</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>-59</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>-42</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9400</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9500</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9600</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9700</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9800</v>
       </c>
@@ -8412,7 +8411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9900</v>
       </c>
